--- a/AAII_Financials/Quarterly/OZON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZON_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -719,25 +719,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>295900</v>
+        <v>295000</v>
       </c>
       <c r="E8" s="3">
-        <v>319400</v>
+        <v>318400</v>
       </c>
       <c r="F8" s="3">
-        <v>263100</v>
+        <v>262300</v>
       </c>
       <c r="G8" s="3">
-        <v>276300</v>
+        <v>275400</v>
       </c>
       <c r="H8" s="3">
-        <v>187400</v>
+        <v>186900</v>
       </c>
       <c r="I8" s="3">
-        <v>167900</v>
+        <v>167400</v>
       </c>
       <c r="J8" s="3">
-        <v>161200</v>
+        <v>160700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -748,25 +748,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>283000</v>
+        <v>282100</v>
       </c>
       <c r="E9" s="3">
-        <v>307400</v>
+        <v>306500</v>
       </c>
       <c r="F9" s="3">
-        <v>285800</v>
+        <v>285000</v>
       </c>
       <c r="G9" s="3">
-        <v>305100</v>
+        <v>304100</v>
       </c>
       <c r="H9" s="3">
-        <v>202000</v>
+        <v>201400</v>
       </c>
       <c r="I9" s="3">
-        <v>184100</v>
+        <v>183600</v>
       </c>
       <c r="J9" s="3">
-        <v>174800</v>
+        <v>174300</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -777,25 +777,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="E10" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="F10" s="3">
         <v>-22700</v>
       </c>
       <c r="G10" s="3">
-        <v>-28800</v>
+        <v>-28700</v>
       </c>
       <c r="H10" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="I10" s="3">
-        <v>-16300</v>
+        <v>-16200</v>
       </c>
       <c r="J10" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="E12" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="F12" s="3">
         <v>12400</v>
       </c>
       <c r="G12" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="H12" s="3">
         <v>10700</v>
@@ -837,7 +837,7 @@
         <v>11500</v>
       </c>
       <c r="J12" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -906,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -945,25 +945,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>339900</v>
+        <v>338900</v>
       </c>
       <c r="E17" s="3">
-        <v>358400</v>
+        <v>357300</v>
       </c>
       <c r="F17" s="3">
-        <v>335900</v>
+        <v>334900</v>
       </c>
       <c r="G17" s="3">
-        <v>357800</v>
+        <v>356700</v>
       </c>
       <c r="H17" s="3">
-        <v>244600</v>
+        <v>243900</v>
       </c>
       <c r="I17" s="3">
-        <v>223600</v>
+        <v>222900</v>
       </c>
       <c r="J17" s="3">
-        <v>212300</v>
+        <v>211600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -974,25 +974,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-44000</v>
+        <v>-43800</v>
       </c>
       <c r="E18" s="3">
-        <v>-39000</v>
+        <v>-38800</v>
       </c>
       <c r="F18" s="3">
-        <v>-72800</v>
+        <v>-72600</v>
       </c>
       <c r="G18" s="3">
-        <v>-81600</v>
+        <v>-81300</v>
       </c>
       <c r="H18" s="3">
-        <v>-57200</v>
+        <v>-57000</v>
       </c>
       <c r="I18" s="3">
-        <v>-55700</v>
+        <v>-55500</v>
       </c>
       <c r="J18" s="3">
-        <v>-51000</v>
+        <v>-50900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1048,22 +1048,22 @@
         <v>-20900</v>
       </c>
       <c r="E21" s="3">
-        <v>-42500</v>
+        <v>-42400</v>
       </c>
       <c r="F21" s="3">
-        <v>-62500</v>
+        <v>-62300</v>
       </c>
       <c r="G21" s="3">
-        <v>-74500</v>
+        <v>-74200</v>
       </c>
       <c r="H21" s="3">
-        <v>-45100</v>
+        <v>-45000</v>
       </c>
       <c r="I21" s="3">
-        <v>-56600</v>
+        <v>-56400</v>
       </c>
       <c r="J21" s="3">
-        <v>-47900</v>
+        <v>-47700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1103,25 +1103,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-51400</v>
+        <v>-51200</v>
       </c>
       <c r="E23" s="3">
-        <v>-44300</v>
+        <v>-44100</v>
       </c>
       <c r="F23" s="3">
-        <v>-75100</v>
+        <v>-74900</v>
       </c>
       <c r="G23" s="3">
-        <v>-86000</v>
+        <v>-85800</v>
       </c>
       <c r="H23" s="3">
-        <v>-60400</v>
+        <v>-60200</v>
       </c>
       <c r="I23" s="3">
-        <v>-57300</v>
+        <v>-57100</v>
       </c>
       <c r="J23" s="3">
-        <v>-54600</v>
+        <v>-54400</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1190,25 +1190,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-51200</v>
+        <v>-51000</v>
       </c>
       <c r="E26" s="3">
-        <v>-43400</v>
+        <v>-43200</v>
       </c>
       <c r="F26" s="3">
-        <v>-75100</v>
+        <v>-74800</v>
       </c>
       <c r="G26" s="3">
-        <v>-83500</v>
+        <v>-83200</v>
       </c>
       <c r="H26" s="3">
-        <v>-60300</v>
+        <v>-60100</v>
       </c>
       <c r="I26" s="3">
-        <v>-57000</v>
+        <v>-56900</v>
       </c>
       <c r="J26" s="3">
-        <v>-54600</v>
+        <v>-54400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1219,25 +1219,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-51200</v>
+        <v>-51000</v>
       </c>
       <c r="E27" s="3">
-        <v>-43400</v>
+        <v>-43200</v>
       </c>
       <c r="F27" s="3">
-        <v>-75100</v>
+        <v>-74800</v>
       </c>
       <c r="G27" s="3">
-        <v>-83300</v>
+        <v>-83000</v>
       </c>
       <c r="H27" s="3">
-        <v>-60300</v>
+        <v>-60100</v>
       </c>
       <c r="I27" s="3">
-        <v>-57000</v>
+        <v>-56900</v>
       </c>
       <c r="J27" s="3">
-        <v>-54600</v>
+        <v>-54400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1393,25 +1393,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-51200</v>
+        <v>-51000</v>
       </c>
       <c r="E33" s="3">
-        <v>-43400</v>
+        <v>-43200</v>
       </c>
       <c r="F33" s="3">
-        <v>-75100</v>
+        <v>-74800</v>
       </c>
       <c r="G33" s="3">
-        <v>-83300</v>
+        <v>-83000</v>
       </c>
       <c r="H33" s="3">
-        <v>-60300</v>
+        <v>-60100</v>
       </c>
       <c r="I33" s="3">
-        <v>-57000</v>
+        <v>-56900</v>
       </c>
       <c r="J33" s="3">
-        <v>-54600</v>
+        <v>-54400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1451,25 +1451,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-51200</v>
+        <v>-51000</v>
       </c>
       <c r="E35" s="3">
-        <v>-43400</v>
+        <v>-43200</v>
       </c>
       <c r="F35" s="3">
-        <v>-75100</v>
+        <v>-74800</v>
       </c>
       <c r="G35" s="3">
-        <v>-83300</v>
+        <v>-83000</v>
       </c>
       <c r="H35" s="3">
-        <v>-60300</v>
+        <v>-60100</v>
       </c>
       <c r="I35" s="3">
-        <v>-57000</v>
+        <v>-56900</v>
       </c>
       <c r="J35" s="3">
-        <v>-54600</v>
+        <v>-54400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1569,7 +1569,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>50100</v>
+        <v>49900</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1598,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>45500</v>
+        <v>45400</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1627,7 +1627,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>148600</v>
+        <v>148100</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1656,7 +1656,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1685,7 +1685,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>279100</v>
+        <v>278300</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1743,7 +1743,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>316000</v>
+        <v>315000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1859,7 +1859,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33200</v>
+        <v>33100</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1917,7 +1917,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>647000</v>
+        <v>645000</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1972,7 +1972,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>327000</v>
+        <v>326000</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -2001,7 +2001,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>174600</v>
+        <v>174100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2030,7 +2030,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>61400</v>
+        <v>61200</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2059,7 +2059,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>562900</v>
+        <v>561200</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2088,7 +2088,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>155200</v>
+        <v>154700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>720600</v>
+        <v>718400</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2391,7 +2391,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-496900</v>
+        <v>-495400</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2507,7 +2507,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-73600</v>
+        <v>-73400</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-51200</v>
+        <v>-51000</v>
       </c>
       <c r="E81" s="3">
-        <v>-43400</v>
+        <v>-43200</v>
       </c>
       <c r="F81" s="3">
-        <v>-75100</v>
+        <v>-74800</v>
       </c>
       <c r="G81" s="3">
-        <v>-83300</v>
+        <v>-83000</v>
       </c>
       <c r="H81" s="3">
-        <v>-60300</v>
+        <v>-60100</v>
       </c>
       <c r="I81" s="3">
-        <v>-57000</v>
+        <v>-56900</v>
       </c>
       <c r="J81" s="3">
-        <v>-54600</v>
+        <v>-54400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2650,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2818,22 +2818,22 @@
         <v>5800</v>
       </c>
       <c r="E89" s="3">
-        <v>-27800</v>
+        <v>-27700</v>
       </c>
       <c r="F89" s="3">
-        <v>-31800</v>
+        <v>-31700</v>
       </c>
       <c r="G89" s="3">
-        <v>-35900</v>
+        <v>-35800</v>
       </c>
       <c r="H89" s="3">
         <v>-18100</v>
       </c>
       <c r="I89" s="3">
-        <v>-91500</v>
+        <v>-91200</v>
       </c>
       <c r="J89" s="3">
-        <v>-43300</v>
+        <v>-43200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -2860,16 +2860,16 @@
         <v>-21400</v>
       </c>
       <c r="E91" s="3">
-        <v>-26200</v>
+        <v>-26100</v>
       </c>
       <c r="F91" s="3">
         <v>-14500</v>
       </c>
       <c r="G91" s="3">
-        <v>-21400</v>
+        <v>-21300</v>
       </c>
       <c r="H91" s="3">
-        <v>-19500</v>
+        <v>-19400</v>
       </c>
       <c r="I91" s="3">
         <v>-16400</v>
@@ -2953,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-21000</v>
+        <v>-20900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3111,7 +3111,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>65800</v>
+        <v>65600</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3169,7 +3169,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/OZON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>OZON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>295000</v>
+        <v>454700</v>
       </c>
       <c r="E8" s="3">
-        <v>318400</v>
+        <v>513800</v>
       </c>
       <c r="F8" s="3">
-        <v>262300</v>
+        <v>305400</v>
       </c>
       <c r="G8" s="3">
-        <v>275400</v>
+        <v>329600</v>
       </c>
       <c r="H8" s="3">
-        <v>186900</v>
+        <v>271500</v>
       </c>
       <c r="I8" s="3">
+        <v>285100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>193400</v>
+      </c>
+      <c r="K8" s="3">
         <v>167400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>160700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>282100</v>
+        <v>456500</v>
       </c>
       <c r="E9" s="3">
-        <v>306500</v>
+        <v>505000</v>
       </c>
       <c r="F9" s="3">
-        <v>285000</v>
+        <v>292000</v>
       </c>
       <c r="G9" s="3">
-        <v>304100</v>
+        <v>317200</v>
       </c>
       <c r="H9" s="3">
-        <v>201400</v>
+        <v>294900</v>
       </c>
       <c r="I9" s="3">
+        <v>314800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>208400</v>
+      </c>
+      <c r="K9" s="3">
         <v>183600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>174300</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12900</v>
+        <v>-1800</v>
       </c>
       <c r="E10" s="3">
-        <v>11900</v>
+        <v>8800</v>
       </c>
       <c r="F10" s="3">
-        <v>-22700</v>
+        <v>13400</v>
       </c>
       <c r="G10" s="3">
-        <v>-28700</v>
+        <v>12400</v>
       </c>
       <c r="H10" s="3">
-        <v>-14500</v>
+        <v>-23500</v>
       </c>
       <c r="I10" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K10" s="3">
         <v>-16200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-13500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13800</v>
+        <v>21900</v>
       </c>
       <c r="E12" s="3">
-        <v>13400</v>
+        <v>18800</v>
       </c>
       <c r="F12" s="3">
-        <v>12400</v>
+        <v>14300</v>
       </c>
       <c r="G12" s="3">
-        <v>12400</v>
+        <v>13900</v>
       </c>
       <c r="H12" s="3">
-        <v>10700</v>
+        <v>12800</v>
       </c>
       <c r="I12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K12" s="3">
         <v>11500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>11700</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,37 +939,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>4500</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3200</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>338900</v>
+        <v>554600</v>
       </c>
       <c r="E17" s="3">
-        <v>357300</v>
+        <v>588900</v>
       </c>
       <c r="F17" s="3">
-        <v>334900</v>
+        <v>350700</v>
       </c>
       <c r="G17" s="3">
-        <v>356700</v>
+        <v>369800</v>
       </c>
       <c r="H17" s="3">
-        <v>243900</v>
+        <v>346600</v>
       </c>
       <c r="I17" s="3">
+        <v>369200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>252400</v>
+      </c>
+      <c r="K17" s="3">
         <v>222900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>211600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-43800</v>
+        <v>-100000</v>
       </c>
       <c r="E18" s="3">
-        <v>-38800</v>
+        <v>-75100</v>
       </c>
       <c r="F18" s="3">
-        <v>-72600</v>
+        <v>-45400</v>
       </c>
       <c r="G18" s="3">
-        <v>-81300</v>
+        <v>-40200</v>
       </c>
       <c r="H18" s="3">
-        <v>-57000</v>
+        <v>-75100</v>
       </c>
       <c r="I18" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-55500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-50900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7400</v>
+        <v>9100</v>
       </c>
       <c r="E20" s="3">
-        <v>-5300</v>
+        <v>-48500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2300</v>
+        <v>-7700</v>
       </c>
       <c r="G20" s="3">
-        <v>-4500</v>
+        <v>-5500</v>
       </c>
       <c r="H20" s="3">
-        <v>-3200</v>
+        <v>-2400</v>
       </c>
       <c r="I20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-20900</v>
+        <v>-67200</v>
       </c>
       <c r="E21" s="3">
-        <v>-42400</v>
+        <v>-102400</v>
       </c>
       <c r="F21" s="3">
-        <v>-62300</v>
+        <v>-21600</v>
       </c>
       <c r="G21" s="3">
-        <v>-74200</v>
+        <v>-43900</v>
       </c>
       <c r="H21" s="3">
-        <v>-45000</v>
+        <v>-64500</v>
       </c>
       <c r="I21" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-56400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-47700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-51200</v>
+        <v>-90900</v>
       </c>
       <c r="E23" s="3">
-        <v>-44100</v>
+        <v>-123600</v>
       </c>
       <c r="F23" s="3">
-        <v>-74900</v>
+        <v>-53000</v>
       </c>
       <c r="G23" s="3">
-        <v>-85800</v>
+        <v>-45700</v>
       </c>
       <c r="H23" s="3">
-        <v>-60200</v>
+        <v>-77500</v>
       </c>
       <c r="I23" s="3">
+        <v>-88800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-57100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-54400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-2500</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
       </c>
       <c r="I24" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-51000</v>
+        <v>-91600</v>
       </c>
       <c r="E26" s="3">
-        <v>-43200</v>
+        <v>-128000</v>
       </c>
       <c r="F26" s="3">
-        <v>-74800</v>
+        <v>-52800</v>
       </c>
       <c r="G26" s="3">
-        <v>-83200</v>
+        <v>-44700</v>
       </c>
       <c r="H26" s="3">
-        <v>-60100</v>
+        <v>-77400</v>
       </c>
       <c r="I26" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-56900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-54400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-51000</v>
+        <v>-91600</v>
       </c>
       <c r="E27" s="3">
-        <v>-43200</v>
+        <v>-127600</v>
       </c>
       <c r="F27" s="3">
-        <v>-74800</v>
+        <v>-52800</v>
       </c>
       <c r="G27" s="3">
-        <v>-83000</v>
+        <v>-44700</v>
       </c>
       <c r="H27" s="3">
-        <v>-60100</v>
+        <v>-77400</v>
       </c>
       <c r="I27" s="3">
+        <v>-85900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-56900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-54400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7400</v>
+        <v>-9100</v>
       </c>
       <c r="E32" s="3">
-        <v>5300</v>
+        <v>48500</v>
       </c>
       <c r="F32" s="3">
-        <v>2300</v>
+        <v>7700</v>
       </c>
       <c r="G32" s="3">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="H32" s="3">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="I32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-51000</v>
+        <v>-91600</v>
       </c>
       <c r="E33" s="3">
-        <v>-43200</v>
+        <v>-127600</v>
       </c>
       <c r="F33" s="3">
-        <v>-74800</v>
+        <v>-52800</v>
       </c>
       <c r="G33" s="3">
-        <v>-83000</v>
+        <v>-44700</v>
       </c>
       <c r="H33" s="3">
-        <v>-60100</v>
+        <v>-77400</v>
       </c>
       <c r="I33" s="3">
+        <v>-85900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-56900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-54400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-51000</v>
+        <v>-91600</v>
       </c>
       <c r="E35" s="3">
-        <v>-43200</v>
+        <v>-127600</v>
       </c>
       <c r="F35" s="3">
-        <v>-74800</v>
+        <v>-52800</v>
       </c>
       <c r="G35" s="3">
-        <v>-83000</v>
+        <v>-44700</v>
       </c>
       <c r="H35" s="3">
-        <v>-60100</v>
+        <v>-77400</v>
       </c>
       <c r="I35" s="3">
+        <v>-85900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-56900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-54400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,19 +1705,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17500</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>1913300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>603900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>18100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1563,19 +1736,25 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>49900</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
+        <v>807500</v>
+      </c>
+      <c r="F42" s="3">
+        <v>51700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1592,19 +1771,25 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>45400</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>52800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>58700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>47000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1621,19 +1806,25 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>148100</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>229300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>208800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>153300</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1650,19 +1841,25 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17300</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>19500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>18000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1679,19 +1876,25 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>278300</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>2215000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1698600</v>
+      </c>
+      <c r="F46" s="3">
+        <v>288000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1708,19 +1911,25 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>16000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>16400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1737,19 +1946,25 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>315000</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>399800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>360000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>326000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1766,19 +1981,25 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2800</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2900</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,19 +2086,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33100</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>37800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>34300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,19 +2156,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>645000</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>2673000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2104200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>667600</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,19 +2225,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>326000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>527300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>579000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>337400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1995,19 +2256,25 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>174100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>71900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>140800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>180100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2024,19 +2291,25 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>61200</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>99800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>99600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>63300</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2053,19 +2326,25 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>561200</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>699000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>819500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>580900</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2361,25 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>154700</v>
+        <v>869000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>198600</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>160100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2111,19 +2396,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2500</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>107700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2600</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,19 +2536,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>718400</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>1675700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1025500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>743500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,19 +2726,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-495400</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-819100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-737600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-512700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,19 +2866,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-73400</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>997200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1078700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-75900</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-51000</v>
+        <v>-91600</v>
       </c>
       <c r="E81" s="3">
-        <v>-43200</v>
+        <v>-127600</v>
       </c>
       <c r="F81" s="3">
-        <v>-74800</v>
+        <v>-52800</v>
       </c>
       <c r="G81" s="3">
-        <v>-83000</v>
+        <v>-44700</v>
       </c>
       <c r="H81" s="3">
-        <v>-60100</v>
+        <v>-77400</v>
       </c>
       <c r="I81" s="3">
+        <v>-85900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-56900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-54400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,28 +3030,30 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>21200</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
-        <v>11500</v>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>11900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5800</v>
+        <v>-164900</v>
       </c>
       <c r="E89" s="3">
-        <v>-27700</v>
+        <v>144900</v>
       </c>
       <c r="F89" s="3">
-        <v>-31700</v>
+        <v>6000</v>
       </c>
       <c r="G89" s="3">
-        <v>-35800</v>
+        <v>-28700</v>
       </c>
       <c r="H89" s="3">
-        <v>-18100</v>
+        <v>-32800</v>
       </c>
       <c r="I89" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-91200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-43200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21400</v>
+        <v>-26000</v>
       </c>
       <c r="E91" s="3">
-        <v>-26100</v>
+        <v>-27300</v>
       </c>
       <c r="F91" s="3">
-        <v>-14500</v>
+        <v>-22100</v>
       </c>
       <c r="G91" s="3">
-        <v>-21300</v>
+        <v>-27000</v>
       </c>
       <c r="H91" s="3">
-        <v>-19400</v>
+        <v>-15000</v>
       </c>
       <c r="I91" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-16400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,28 +3391,34 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-26800</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
-        <v>-20900</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>-21600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -2967,8 +3426,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,28 +3581,34 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>649200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1250000</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
-        <v>65600</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>67900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3125,62 +3616,80 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-26500</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1341600</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
-        <v>9000</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>9400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>OZON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>454700</v>
+        <v>500500</v>
       </c>
       <c r="E8" s="3">
-        <v>513800</v>
+        <v>451700</v>
       </c>
       <c r="F8" s="3">
-        <v>305400</v>
+        <v>510400</v>
       </c>
       <c r="G8" s="3">
-        <v>329600</v>
+        <v>303300</v>
       </c>
       <c r="H8" s="3">
-        <v>271500</v>
+        <v>327400</v>
       </c>
       <c r="I8" s="3">
-        <v>285100</v>
+        <v>269700</v>
       </c>
       <c r="J8" s="3">
+        <v>283200</v>
+      </c>
+      <c r="K8" s="3">
         <v>193400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>167400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>160700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>456500</v>
+        <v>532200</v>
       </c>
       <c r="E9" s="3">
-        <v>505000</v>
+        <v>453500</v>
       </c>
       <c r="F9" s="3">
-        <v>292000</v>
+        <v>501600</v>
       </c>
       <c r="G9" s="3">
-        <v>317200</v>
+        <v>290100</v>
       </c>
       <c r="H9" s="3">
-        <v>294900</v>
+        <v>315100</v>
       </c>
       <c r="I9" s="3">
-        <v>314800</v>
+        <v>293000</v>
       </c>
       <c r="J9" s="3">
+        <v>312700</v>
+      </c>
+      <c r="K9" s="3">
         <v>208400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>183600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>174300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1800</v>
       </c>
-      <c r="E10" s="3">
-        <v>8800</v>
-      </c>
       <c r="F10" s="3">
-        <v>13400</v>
+        <v>8700</v>
       </c>
       <c r="G10" s="3">
-        <v>12400</v>
+        <v>13300</v>
       </c>
       <c r="H10" s="3">
-        <v>-23500</v>
+        <v>12300</v>
       </c>
       <c r="I10" s="3">
-        <v>-29700</v>
+        <v>-23300</v>
       </c>
       <c r="J10" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K10" s="3">
         <v>-15000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-16200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-13500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>21900</v>
+        <v>29400</v>
       </c>
       <c r="E12" s="3">
-        <v>18800</v>
+        <v>21700</v>
       </c>
       <c r="F12" s="3">
-        <v>14300</v>
+        <v>18700</v>
       </c>
       <c r="G12" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="H12" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J12" s="3">
         <v>12800</v>
       </c>
-      <c r="I12" s="3">
-        <v>12800</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11700</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,43 +965,49 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>5100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4700</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>3600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3200</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>554600</v>
+        <v>667200</v>
       </c>
       <c r="E17" s="3">
-        <v>588900</v>
+        <v>551000</v>
       </c>
       <c r="F17" s="3">
-        <v>350700</v>
+        <v>585000</v>
       </c>
       <c r="G17" s="3">
-        <v>369800</v>
+        <v>348400</v>
       </c>
       <c r="H17" s="3">
-        <v>346600</v>
+        <v>367300</v>
       </c>
       <c r="I17" s="3">
-        <v>369200</v>
+        <v>344300</v>
       </c>
       <c r="J17" s="3">
+        <v>366800</v>
+      </c>
+      <c r="K17" s="3">
         <v>252400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>222900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>211600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100000</v>
+        <v>-166800</v>
       </c>
       <c r="E18" s="3">
-        <v>-75100</v>
+        <v>-99300</v>
       </c>
       <c r="F18" s="3">
-        <v>-45400</v>
+        <v>-74600</v>
       </c>
       <c r="G18" s="3">
-        <v>-40200</v>
+        <v>-45100</v>
       </c>
       <c r="H18" s="3">
-        <v>-75100</v>
+        <v>-39900</v>
       </c>
       <c r="I18" s="3">
-        <v>-84200</v>
+        <v>-74600</v>
       </c>
       <c r="J18" s="3">
+        <v>-83600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-59000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-55500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-50900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9100</v>
+        <v>-39500</v>
       </c>
       <c r="E20" s="3">
-        <v>-48500</v>
+        <v>9000</v>
       </c>
       <c r="F20" s="3">
-        <v>-7700</v>
+        <v>-48200</v>
       </c>
       <c r="G20" s="3">
-        <v>-5500</v>
+        <v>-7600</v>
       </c>
       <c r="H20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-67200</v>
+        <v>-177500</v>
       </c>
       <c r="E21" s="3">
-        <v>-102400</v>
+        <v>-66800</v>
       </c>
       <c r="F21" s="3">
-        <v>-21600</v>
+        <v>-101700</v>
       </c>
       <c r="G21" s="3">
-        <v>-43900</v>
+        <v>-21400</v>
       </c>
       <c r="H21" s="3">
-        <v>-64500</v>
+        <v>-43600</v>
       </c>
       <c r="I21" s="3">
-        <v>-76800</v>
+        <v>-64100</v>
       </c>
       <c r="J21" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-46600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-56400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-47700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-90900</v>
+        <v>-206300</v>
       </c>
       <c r="E23" s="3">
-        <v>-123600</v>
+        <v>-90300</v>
       </c>
       <c r="F23" s="3">
-        <v>-53000</v>
+        <v>-122800</v>
       </c>
       <c r="G23" s="3">
-        <v>-45700</v>
+        <v>-52700</v>
       </c>
       <c r="H23" s="3">
-        <v>-77500</v>
+        <v>-45400</v>
       </c>
       <c r="I23" s="3">
-        <v>-88800</v>
+        <v>-77000</v>
       </c>
       <c r="J23" s="3">
+        <v>-88200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-62300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-57100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-54400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-91600</v>
+        <v>-206000</v>
       </c>
       <c r="E26" s="3">
-        <v>-128000</v>
+        <v>-91000</v>
       </c>
       <c r="F26" s="3">
-        <v>-52800</v>
+        <v>-127200</v>
       </c>
       <c r="G26" s="3">
-        <v>-44700</v>
+        <v>-52400</v>
       </c>
       <c r="H26" s="3">
-        <v>-77400</v>
+        <v>-44500</v>
       </c>
       <c r="I26" s="3">
-        <v>-86200</v>
+        <v>-76900</v>
       </c>
       <c r="J26" s="3">
+        <v>-85600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-62200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-56900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-54400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-91600</v>
+        <v>-206000</v>
       </c>
       <c r="E27" s="3">
-        <v>-127600</v>
+        <v>-91000</v>
       </c>
       <c r="F27" s="3">
-        <v>-52800</v>
+        <v>-126700</v>
       </c>
       <c r="G27" s="3">
-        <v>-44700</v>
+        <v>-52400</v>
       </c>
       <c r="H27" s="3">
-        <v>-77400</v>
+        <v>-44500</v>
       </c>
       <c r="I27" s="3">
-        <v>-85900</v>
+        <v>-76900</v>
       </c>
       <c r="J27" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-62200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-56900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-54400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9100</v>
+        <v>39500</v>
       </c>
       <c r="E32" s="3">
-        <v>48500</v>
+        <v>-9000</v>
       </c>
       <c r="F32" s="3">
-        <v>7700</v>
+        <v>48200</v>
       </c>
       <c r="G32" s="3">
-        <v>5500</v>
+        <v>7600</v>
       </c>
       <c r="H32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-91600</v>
+        <v>-206000</v>
       </c>
       <c r="E33" s="3">
-        <v>-127600</v>
+        <v>-91000</v>
       </c>
       <c r="F33" s="3">
-        <v>-52800</v>
+        <v>-126700</v>
       </c>
       <c r="G33" s="3">
-        <v>-44700</v>
+        <v>-52400</v>
       </c>
       <c r="H33" s="3">
-        <v>-77400</v>
+        <v>-44500</v>
       </c>
       <c r="I33" s="3">
-        <v>-85900</v>
+        <v>-76900</v>
       </c>
       <c r="J33" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-62200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-56900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-54400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-91600</v>
+        <v>-206000</v>
       </c>
       <c r="E35" s="3">
-        <v>-127600</v>
+        <v>-91000</v>
       </c>
       <c r="F35" s="3">
-        <v>-52800</v>
+        <v>-126700</v>
       </c>
       <c r="G35" s="3">
-        <v>-44700</v>
+        <v>-52400</v>
       </c>
       <c r="H35" s="3">
-        <v>-77400</v>
+        <v>-44500</v>
       </c>
       <c r="I35" s="3">
-        <v>-85900</v>
+        <v>-76900</v>
       </c>
       <c r="J35" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-62200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-56900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-54400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,22 +1793,23 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1913300</v>
+        <v>1660900</v>
       </c>
       <c r="E41" s="3">
-        <v>603900</v>
+        <v>1900700</v>
       </c>
       <c r="F41" s="3">
-        <v>18100</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>599900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>18000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1742,22 +1829,25 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
-        <v>807500</v>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F42" s="3">
-        <v>51700</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>802200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>51300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1777,22 +1867,25 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>52800</v>
+        <v>64600</v>
       </c>
       <c r="E43" s="3">
-        <v>58700</v>
+        <v>52500</v>
       </c>
       <c r="F43" s="3">
-        <v>47000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>58300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>46700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1812,22 +1905,25 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>229300</v>
+        <v>239200</v>
       </c>
       <c r="E44" s="3">
-        <v>208800</v>
+        <v>227700</v>
       </c>
       <c r="F44" s="3">
-        <v>153300</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>207400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>152300</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1847,22 +1943,25 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19500</v>
+        <v>33000</v>
       </c>
       <c r="E45" s="3">
-        <v>19700</v>
+        <v>19400</v>
       </c>
       <c r="F45" s="3">
-        <v>18000</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>19600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>17800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1882,22 +1981,25 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2215000</v>
+        <v>1997700</v>
       </c>
       <c r="E46" s="3">
-        <v>1698600</v>
+        <v>2200300</v>
       </c>
       <c r="F46" s="3">
-        <v>288000</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>1687400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>286100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1917,22 +2019,25 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16000</v>
+        <v>16900</v>
       </c>
       <c r="E47" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="F47" s="3">
-        <v>16400</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>15000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>16300</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1952,22 +2057,25 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>399800</v>
+        <v>516700</v>
       </c>
       <c r="E48" s="3">
-        <v>360000</v>
+        <v>397200</v>
       </c>
       <c r="F48" s="3">
-        <v>326000</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>357600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>323900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1987,22 +2095,25 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E49" s="3">
         <v>4400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4300</v>
       </c>
-      <c r="F49" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>2800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,22 +2209,25 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37800</v>
+        <v>65600</v>
       </c>
       <c r="E52" s="3">
-        <v>26200</v>
+        <v>37600</v>
       </c>
       <c r="F52" s="3">
-        <v>34300</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>26000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>34100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,22 +2285,25 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2673000</v>
+        <v>2604500</v>
       </c>
       <c r="E54" s="3">
-        <v>2104200</v>
+        <v>2655300</v>
       </c>
       <c r="F54" s="3">
-        <v>667600</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>2090300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>663200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,22 +2357,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>527300</v>
+        <v>575000</v>
       </c>
       <c r="E57" s="3">
-        <v>579000</v>
+        <v>523800</v>
       </c>
       <c r="F57" s="3">
-        <v>337400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>575200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>335200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2262,22 +2393,25 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71900</v>
+        <v>86800</v>
       </c>
       <c r="E58" s="3">
-        <v>140800</v>
+        <v>71400</v>
       </c>
       <c r="F58" s="3">
-        <v>180100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>139900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>179000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2297,22 +2431,25 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>99800</v>
+        <v>122600</v>
       </c>
       <c r="E59" s="3">
-        <v>99600</v>
+        <v>99200</v>
       </c>
       <c r="F59" s="3">
-        <v>63300</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>98900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>62900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2469,25 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>699000</v>
+        <v>784400</v>
       </c>
       <c r="E60" s="3">
-        <v>819500</v>
+        <v>694400</v>
       </c>
       <c r="F60" s="3">
-        <v>580900</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>814100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>577000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2367,22 +2507,25 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>869000</v>
+        <v>931000</v>
       </c>
       <c r="E61" s="3">
-        <v>198600</v>
+        <v>863300</v>
       </c>
       <c r="F61" s="3">
-        <v>160100</v>
+        <v>197300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>159000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2402,23 +2545,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>107700</v>
+        <v>89900</v>
       </c>
       <c r="E62" s="3">
-        <v>7500</v>
+        <v>107000</v>
       </c>
       <c r="F62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,22 +2697,25 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1675700</v>
+        <v>1805300</v>
       </c>
       <c r="E66" s="3">
-        <v>1025500</v>
+        <v>1664700</v>
       </c>
       <c r="F66" s="3">
-        <v>743500</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>1018700</v>
+      </c>
+      <c r="G66" s="3">
+        <v>738600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,22 +2903,25 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-819100</v>
+        <v>-1008300</v>
       </c>
       <c r="E72" s="3">
-        <v>-737600</v>
+        <v>-813600</v>
       </c>
       <c r="F72" s="3">
-        <v>-512700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-732700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-509300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,22 +3055,25 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>997200</v>
+        <v>799200</v>
       </c>
       <c r="E76" s="3">
-        <v>1078700</v>
+        <v>990700</v>
       </c>
       <c r="F76" s="3">
-        <v>-75900</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>1071600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-75400</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-91600</v>
+        <v>-206000</v>
       </c>
       <c r="E81" s="3">
-        <v>-127600</v>
+        <v>-91000</v>
       </c>
       <c r="F81" s="3">
-        <v>-52800</v>
+        <v>-126700</v>
       </c>
       <c r="G81" s="3">
-        <v>-44700</v>
+        <v>-52400</v>
       </c>
       <c r="H81" s="3">
-        <v>-77400</v>
+        <v>-44500</v>
       </c>
       <c r="I81" s="3">
-        <v>-85900</v>
+        <v>-76900</v>
       </c>
       <c r="J81" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-62200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-56900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-54400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,19 +3230,20 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23700</v>
+        <v>28800</v>
       </c>
       <c r="E83" s="3">
-        <v>21200</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+        <v>23500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>21100</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3052,12 +3251,12 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>11900</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-164900</v>
+        <v>-103700</v>
       </c>
       <c r="E89" s="3">
-        <v>144900</v>
+        <v>-163800</v>
       </c>
       <c r="F89" s="3">
+        <v>143900</v>
+      </c>
+      <c r="G89" s="3">
         <v>6000</v>
       </c>
-      <c r="G89" s="3">
-        <v>-28700</v>
-      </c>
       <c r="H89" s="3">
-        <v>-32800</v>
+        <v>-28500</v>
       </c>
       <c r="I89" s="3">
-        <v>-37000</v>
+        <v>-32600</v>
       </c>
       <c r="J89" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-18700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-91200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-43200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26000</v>
+        <v>-49500</v>
       </c>
       <c r="E91" s="3">
-        <v>-27300</v>
+        <v>-25900</v>
       </c>
       <c r="F91" s="3">
-        <v>-22100</v>
+        <v>-27100</v>
       </c>
       <c r="G91" s="3">
-        <v>-27000</v>
+        <v>-22000</v>
       </c>
       <c r="H91" s="3">
-        <v>-15000</v>
+        <v>-26800</v>
       </c>
       <c r="I91" s="3">
-        <v>-22000</v>
+        <v>-14900</v>
       </c>
       <c r="J91" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,19 +3624,22 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21700</v>
+        <v>-51300</v>
       </c>
       <c r="E94" s="3">
-        <v>-26800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-21600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-26600</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3417,11 +3647,11 @@
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>-21600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-21500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,19 +3830,22 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>649200</v>
+        <v>-12400</v>
       </c>
       <c r="E100" s="3">
-        <v>1250000</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>644900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1241800</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3607,11 +3853,11 @@
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
-        <v>67900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>67500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3622,19 +3868,22 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>39500</v>
+        <v>-72300</v>
       </c>
       <c r="E101" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+        <v>39200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-26300</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3642,12 +3891,12 @@
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3657,19 +3906,22 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>502000</v>
+        <v>-239800</v>
       </c>
       <c r="E102" s="3">
-        <v>1341600</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>498600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1332700</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3677,11 +3929,11 @@
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
+        <v>9300</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3690,6 +3942,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZON_QTR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>500500</v>
+        <v>498600</v>
       </c>
       <c r="E8" s="3">
-        <v>451700</v>
+        <v>450000</v>
       </c>
       <c r="F8" s="3">
-        <v>510400</v>
+        <v>508500</v>
       </c>
       <c r="G8" s="3">
-        <v>303300</v>
+        <v>302200</v>
       </c>
       <c r="H8" s="3">
-        <v>327400</v>
+        <v>326200</v>
       </c>
       <c r="I8" s="3">
-        <v>269700</v>
+        <v>268700</v>
       </c>
       <c r="J8" s="3">
-        <v>283200</v>
+        <v>282100</v>
       </c>
       <c r="K8" s="3">
         <v>193400</v>
@@ -768,25 +768,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>532200</v>
+        <v>530200</v>
       </c>
       <c r="E9" s="3">
-        <v>453500</v>
+        <v>451800</v>
       </c>
       <c r="F9" s="3">
-        <v>501600</v>
+        <v>499800</v>
       </c>
       <c r="G9" s="3">
-        <v>290100</v>
+        <v>289000</v>
       </c>
       <c r="H9" s="3">
-        <v>315100</v>
+        <v>313900</v>
       </c>
       <c r="I9" s="3">
-        <v>293000</v>
+        <v>291900</v>
       </c>
       <c r="J9" s="3">
-        <v>312700</v>
+        <v>311500</v>
       </c>
       <c r="K9" s="3">
         <v>208400</v>
@@ -806,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-31700</v>
+        <v>-31600</v>
       </c>
       <c r="E10" s="3">
         <v>-1800</v>
@@ -815,16 +815,16 @@
         <v>8700</v>
       </c>
       <c r="G10" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="H10" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="I10" s="3">
-        <v>-23300</v>
+        <v>-23200</v>
       </c>
       <c r="J10" s="3">
-        <v>-29500</v>
+        <v>-29400</v>
       </c>
       <c r="K10" s="3">
         <v>-15000</v>
@@ -860,13 +860,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>29400</v>
+        <v>29300</v>
       </c>
       <c r="E12" s="3">
-        <v>21700</v>
+        <v>21600</v>
       </c>
       <c r="F12" s="3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="G12" s="3">
         <v>14200</v>
@@ -878,7 +878,7 @@
         <v>12700</v>
       </c>
       <c r="J12" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="K12" s="3">
         <v>11000</v>
@@ -983,7 +983,7 @@
         <v>5100</v>
       </c>
       <c r="G15" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -1025,25 +1025,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>667200</v>
+        <v>664800</v>
       </c>
       <c r="E17" s="3">
-        <v>551000</v>
+        <v>548900</v>
       </c>
       <c r="F17" s="3">
-        <v>585000</v>
+        <v>582800</v>
       </c>
       <c r="G17" s="3">
-        <v>348400</v>
+        <v>347100</v>
       </c>
       <c r="H17" s="3">
-        <v>367300</v>
+        <v>366000</v>
       </c>
       <c r="I17" s="3">
-        <v>344300</v>
+        <v>343000</v>
       </c>
       <c r="J17" s="3">
-        <v>366800</v>
+        <v>365400</v>
       </c>
       <c r="K17" s="3">
         <v>252400</v>
@@ -1063,25 +1063,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-166800</v>
+        <v>-166100</v>
       </c>
       <c r="E18" s="3">
-        <v>-99300</v>
+        <v>-98900</v>
       </c>
       <c r="F18" s="3">
-        <v>-74600</v>
+        <v>-74300</v>
       </c>
       <c r="G18" s="3">
-        <v>-45100</v>
+        <v>-44900</v>
       </c>
       <c r="H18" s="3">
-        <v>-39900</v>
+        <v>-39800</v>
       </c>
       <c r="I18" s="3">
-        <v>-74600</v>
+        <v>-74400</v>
       </c>
       <c r="J18" s="3">
-        <v>-83600</v>
+        <v>-83300</v>
       </c>
       <c r="K18" s="3">
         <v>-59000</v>
@@ -1117,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-39500</v>
+        <v>-39400</v>
       </c>
       <c r="E20" s="3">
         <v>9000</v>
       </c>
       <c r="F20" s="3">
-        <v>-48200</v>
+        <v>-48000</v>
       </c>
       <c r="G20" s="3">
         <v>-7600</v>
@@ -1155,25 +1155,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-177500</v>
+        <v>-176800</v>
       </c>
       <c r="E21" s="3">
-        <v>-66800</v>
+        <v>-66500</v>
       </c>
       <c r="F21" s="3">
-        <v>-101700</v>
+        <v>-101300</v>
       </c>
       <c r="G21" s="3">
         <v>-21400</v>
       </c>
       <c r="H21" s="3">
-        <v>-43600</v>
+        <v>-43400</v>
       </c>
       <c r="I21" s="3">
-        <v>-64100</v>
+        <v>-63800</v>
       </c>
       <c r="J21" s="3">
-        <v>-76300</v>
+        <v>-76100</v>
       </c>
       <c r="K21" s="3">
         <v>-46600</v>
@@ -1231,25 +1231,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-206300</v>
+        <v>-205500</v>
       </c>
       <c r="E23" s="3">
-        <v>-90300</v>
+        <v>-90000</v>
       </c>
       <c r="F23" s="3">
-        <v>-122800</v>
+        <v>-122300</v>
       </c>
       <c r="G23" s="3">
-        <v>-52700</v>
+        <v>-52500</v>
       </c>
       <c r="H23" s="3">
-        <v>-45400</v>
+        <v>-45200</v>
       </c>
       <c r="I23" s="3">
-        <v>-77000</v>
+        <v>-76700</v>
       </c>
       <c r="J23" s="3">
-        <v>-88200</v>
+        <v>-87900</v>
       </c>
       <c r="K23" s="3">
         <v>-62300</v>
@@ -1345,25 +1345,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-206000</v>
+        <v>-205200</v>
       </c>
       <c r="E26" s="3">
-        <v>-91000</v>
+        <v>-90700</v>
       </c>
       <c r="F26" s="3">
-        <v>-127200</v>
+        <v>-126700</v>
       </c>
       <c r="G26" s="3">
-        <v>-52400</v>
+        <v>-52300</v>
       </c>
       <c r="H26" s="3">
-        <v>-44500</v>
+        <v>-44300</v>
       </c>
       <c r="I26" s="3">
-        <v>-76900</v>
+        <v>-76600</v>
       </c>
       <c r="J26" s="3">
-        <v>-85600</v>
+        <v>-85300</v>
       </c>
       <c r="K26" s="3">
         <v>-62200</v>
@@ -1383,25 +1383,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-206000</v>
+        <v>-205200</v>
       </c>
       <c r="E27" s="3">
-        <v>-91000</v>
+        <v>-90700</v>
       </c>
       <c r="F27" s="3">
-        <v>-126700</v>
+        <v>-126300</v>
       </c>
       <c r="G27" s="3">
-        <v>-52400</v>
+        <v>-52300</v>
       </c>
       <c r="H27" s="3">
-        <v>-44500</v>
+        <v>-44300</v>
       </c>
       <c r="I27" s="3">
-        <v>-76900</v>
+        <v>-76600</v>
       </c>
       <c r="J27" s="3">
-        <v>-85400</v>
+        <v>-85100</v>
       </c>
       <c r="K27" s="3">
         <v>-62200</v>
@@ -1573,13 +1573,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>39500</v>
+        <v>39400</v>
       </c>
       <c r="E32" s="3">
         <v>-9000</v>
       </c>
       <c r="F32" s="3">
-        <v>48200</v>
+        <v>48000</v>
       </c>
       <c r="G32" s="3">
         <v>7600</v>
@@ -1611,25 +1611,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-206000</v>
+        <v>-205200</v>
       </c>
       <c r="E33" s="3">
-        <v>-91000</v>
+        <v>-90700</v>
       </c>
       <c r="F33" s="3">
-        <v>-126700</v>
+        <v>-126300</v>
       </c>
       <c r="G33" s="3">
-        <v>-52400</v>
+        <v>-52300</v>
       </c>
       <c r="H33" s="3">
-        <v>-44500</v>
+        <v>-44300</v>
       </c>
       <c r="I33" s="3">
-        <v>-76900</v>
+        <v>-76600</v>
       </c>
       <c r="J33" s="3">
-        <v>-85400</v>
+        <v>-85100</v>
       </c>
       <c r="K33" s="3">
         <v>-62200</v>
@@ -1687,25 +1687,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-206000</v>
+        <v>-205200</v>
       </c>
       <c r="E35" s="3">
-        <v>-91000</v>
+        <v>-90700</v>
       </c>
       <c r="F35" s="3">
-        <v>-126700</v>
+        <v>-126300</v>
       </c>
       <c r="G35" s="3">
-        <v>-52400</v>
+        <v>-52300</v>
       </c>
       <c r="H35" s="3">
-        <v>-44500</v>
+        <v>-44300</v>
       </c>
       <c r="I35" s="3">
-        <v>-76900</v>
+        <v>-76600</v>
       </c>
       <c r="J35" s="3">
-        <v>-85400</v>
+        <v>-85100</v>
       </c>
       <c r="K35" s="3">
         <v>-62200</v>
@@ -1800,16 +1800,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1660900</v>
+        <v>1654800</v>
       </c>
       <c r="E41" s="3">
-        <v>1900700</v>
+        <v>1893700</v>
       </c>
       <c r="F41" s="3">
-        <v>599900</v>
+        <v>597700</v>
       </c>
       <c r="G41" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1844,10 +1844,10 @@
         <v>3</v>
       </c>
       <c r="F42" s="3">
-        <v>802200</v>
+        <v>799200</v>
       </c>
       <c r="G42" s="3">
-        <v>51300</v>
+        <v>51100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1876,16 +1876,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>64600</v>
+        <v>64400</v>
       </c>
       <c r="E43" s="3">
-        <v>52500</v>
+        <v>52300</v>
       </c>
       <c r="F43" s="3">
-        <v>58300</v>
+        <v>58100</v>
       </c>
       <c r="G43" s="3">
-        <v>46700</v>
+        <v>46500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1914,16 +1914,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>239200</v>
+        <v>238300</v>
       </c>
       <c r="E44" s="3">
-        <v>227700</v>
+        <v>226900</v>
       </c>
       <c r="F44" s="3">
-        <v>207400</v>
+        <v>206700</v>
       </c>
       <c r="G44" s="3">
-        <v>152300</v>
+        <v>151700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1952,13 +1952,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33000</v>
+        <v>32900</v>
       </c>
       <c r="E45" s="3">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="F45" s="3">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="G45" s="3">
         <v>17800</v>
@@ -1990,16 +1990,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1997700</v>
+        <v>1990300</v>
       </c>
       <c r="E46" s="3">
-        <v>2200300</v>
+        <v>2192200</v>
       </c>
       <c r="F46" s="3">
-        <v>1687400</v>
+        <v>1681200</v>
       </c>
       <c r="G46" s="3">
-        <v>286100</v>
+        <v>285000</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -2028,7 +2028,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="E47" s="3">
         <v>15800</v>
@@ -2066,16 +2066,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>516700</v>
+        <v>514800</v>
       </c>
       <c r="E48" s="3">
-        <v>397200</v>
+        <v>395700</v>
       </c>
       <c r="F48" s="3">
-        <v>357600</v>
+        <v>356300</v>
       </c>
       <c r="G48" s="3">
-        <v>323900</v>
+        <v>322700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2104,7 +2104,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E49" s="3">
         <v>4400</v>
@@ -2218,16 +2218,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>65600</v>
+        <v>65400</v>
       </c>
       <c r="E52" s="3">
-        <v>37600</v>
+        <v>37400</v>
       </c>
       <c r="F52" s="3">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="G52" s="3">
-        <v>34100</v>
+        <v>33900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2294,16 +2294,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2604500</v>
+        <v>2594900</v>
       </c>
       <c r="E54" s="3">
-        <v>2655300</v>
+        <v>2645500</v>
       </c>
       <c r="F54" s="3">
-        <v>2090300</v>
+        <v>2082600</v>
       </c>
       <c r="G54" s="3">
-        <v>663200</v>
+        <v>660700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2364,16 +2364,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>575000</v>
+        <v>572900</v>
       </c>
       <c r="E57" s="3">
-        <v>523800</v>
+        <v>521900</v>
       </c>
       <c r="F57" s="3">
-        <v>575200</v>
+        <v>573100</v>
       </c>
       <c r="G57" s="3">
-        <v>335200</v>
+        <v>333900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2402,16 +2402,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>86800</v>
+        <v>86500</v>
       </c>
       <c r="E58" s="3">
-        <v>71400</v>
+        <v>71100</v>
       </c>
       <c r="F58" s="3">
-        <v>139900</v>
+        <v>139400</v>
       </c>
       <c r="G58" s="3">
-        <v>179000</v>
+        <v>178300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2440,16 +2440,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122600</v>
+        <v>122100</v>
       </c>
       <c r="E59" s="3">
-        <v>99200</v>
+        <v>98800</v>
       </c>
       <c r="F59" s="3">
-        <v>98900</v>
+        <v>98600</v>
       </c>
       <c r="G59" s="3">
-        <v>62900</v>
+        <v>62700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2478,16 +2478,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>784400</v>
+        <v>781500</v>
       </c>
       <c r="E60" s="3">
-        <v>694400</v>
+        <v>691800</v>
       </c>
       <c r="F60" s="3">
-        <v>814100</v>
+        <v>811000</v>
       </c>
       <c r="G60" s="3">
-        <v>577000</v>
+        <v>574900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2516,16 +2516,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>931000</v>
+        <v>927600</v>
       </c>
       <c r="E61" s="3">
-        <v>863300</v>
+        <v>860100</v>
       </c>
       <c r="F61" s="3">
-        <v>197300</v>
+        <v>196500</v>
       </c>
       <c r="G61" s="3">
-        <v>159000</v>
+        <v>158400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>89900</v>
+        <v>89600</v>
       </c>
       <c r="E62" s="3">
-        <v>107000</v>
+        <v>106600</v>
       </c>
       <c r="F62" s="3">
         <v>7400</v>
       </c>
       <c r="G62" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2706,16 +2706,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1805300</v>
+        <v>1798600</v>
       </c>
       <c r="E66" s="3">
-        <v>1664700</v>
+        <v>1658500</v>
       </c>
       <c r="F66" s="3">
-        <v>1018700</v>
+        <v>1015000</v>
       </c>
       <c r="G66" s="3">
-        <v>738600</v>
+        <v>735900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2912,16 +2912,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1008300</v>
+        <v>-1004600</v>
       </c>
       <c r="E72" s="3">
-        <v>-813600</v>
+        <v>-810600</v>
       </c>
       <c r="F72" s="3">
-        <v>-732700</v>
+        <v>-730000</v>
       </c>
       <c r="G72" s="3">
-        <v>-509300</v>
+        <v>-507400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3064,16 +3064,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>799200</v>
+        <v>796200</v>
       </c>
       <c r="E76" s="3">
-        <v>990700</v>
+        <v>987000</v>
       </c>
       <c r="F76" s="3">
-        <v>1071600</v>
+        <v>1067600</v>
       </c>
       <c r="G76" s="3">
-        <v>-75400</v>
+        <v>-75100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -3183,25 +3183,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-206000</v>
+        <v>-205200</v>
       </c>
       <c r="E81" s="3">
-        <v>-91000</v>
+        <v>-90700</v>
       </c>
       <c r="F81" s="3">
-        <v>-126700</v>
+        <v>-126300</v>
       </c>
       <c r="G81" s="3">
-        <v>-52400</v>
+        <v>-52300</v>
       </c>
       <c r="H81" s="3">
-        <v>-44500</v>
+        <v>-44300</v>
       </c>
       <c r="I81" s="3">
-        <v>-76900</v>
+        <v>-76600</v>
       </c>
       <c r="J81" s="3">
-        <v>-85400</v>
+        <v>-85100</v>
       </c>
       <c r="K81" s="3">
         <v>-62200</v>
@@ -3237,13 +3237,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28800</v>
+        <v>28700</v>
       </c>
       <c r="E83" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="F83" s="3">
-        <v>21100</v>
+        <v>21000</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3255,7 +3255,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3465,25 +3465,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-103700</v>
+        <v>-103400</v>
       </c>
       <c r="E89" s="3">
-        <v>-163800</v>
+        <v>-163200</v>
       </c>
       <c r="F89" s="3">
-        <v>143900</v>
+        <v>143400</v>
       </c>
       <c r="G89" s="3">
         <v>6000</v>
       </c>
       <c r="H89" s="3">
-        <v>-28500</v>
+        <v>-28400</v>
       </c>
       <c r="I89" s="3">
-        <v>-32600</v>
+        <v>-32500</v>
       </c>
       <c r="J89" s="3">
-        <v>-36800</v>
+        <v>-36700</v>
       </c>
       <c r="K89" s="3">
         <v>-18700</v>
@@ -3519,25 +3519,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-49500</v>
+        <v>-49300</v>
       </c>
       <c r="E91" s="3">
-        <v>-25900</v>
+        <v>-25800</v>
       </c>
       <c r="F91" s="3">
-        <v>-27100</v>
+        <v>-27000</v>
       </c>
       <c r="G91" s="3">
-        <v>-22000</v>
+        <v>-21900</v>
       </c>
       <c r="H91" s="3">
-        <v>-26800</v>
+        <v>-26700</v>
       </c>
       <c r="I91" s="3">
-        <v>-14900</v>
+        <v>-14800</v>
       </c>
       <c r="J91" s="3">
-        <v>-21900</v>
+        <v>-21800</v>
       </c>
       <c r="K91" s="3">
         <v>-20100</v>
@@ -3633,13 +3633,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-51300</v>
+        <v>-51100</v>
       </c>
       <c r="E94" s="3">
-        <v>-21600</v>
+        <v>-21500</v>
       </c>
       <c r="F94" s="3">
-        <v>-26600</v>
+        <v>-26500</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3651,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="J94" s="3">
-        <v>-21500</v>
+        <v>-21400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3839,13 +3839,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12400</v>
+        <v>-12300</v>
       </c>
       <c r="E100" s="3">
-        <v>644900</v>
+        <v>642500</v>
       </c>
       <c r="F100" s="3">
-        <v>1241800</v>
+        <v>1237200</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3857,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="J100" s="3">
-        <v>67500</v>
+        <v>67200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3877,13 +3877,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-72300</v>
+        <v>-72100</v>
       </c>
       <c r="E101" s="3">
-        <v>39200</v>
+        <v>39100</v>
       </c>
       <c r="F101" s="3">
-        <v>-26300</v>
+        <v>-26200</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3915,13 +3915,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-239800</v>
+        <v>-238900</v>
       </c>
       <c r="E102" s="3">
-        <v>498600</v>
+        <v>496800</v>
       </c>
       <c r="F102" s="3">
-        <v>1332700</v>
+        <v>1327800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/OZON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>OZON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>498600</v>
+        <v>328200</v>
       </c>
       <c r="E8" s="3">
-        <v>450000</v>
+        <v>292800</v>
       </c>
       <c r="F8" s="3">
-        <v>508500</v>
+        <v>264200</v>
       </c>
       <c r="G8" s="3">
-        <v>302200</v>
+        <v>298600</v>
       </c>
       <c r="H8" s="3">
-        <v>326200</v>
+        <v>177500</v>
       </c>
       <c r="I8" s="3">
-        <v>268700</v>
+        <v>191500</v>
       </c>
       <c r="J8" s="3">
+        <v>157800</v>
+      </c>
+      <c r="K8" s="3">
         <v>282100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>193400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>167400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>160700</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>530200</v>
+        <v>353800</v>
       </c>
       <c r="E9" s="3">
-        <v>451800</v>
+        <v>311400</v>
       </c>
       <c r="F9" s="3">
-        <v>499800</v>
+        <v>265300</v>
       </c>
       <c r="G9" s="3">
-        <v>289000</v>
+        <v>293500</v>
       </c>
       <c r="H9" s="3">
-        <v>313900</v>
+        <v>169700</v>
       </c>
       <c r="I9" s="3">
-        <v>291900</v>
+        <v>184400</v>
       </c>
       <c r="J9" s="3">
+        <v>171400</v>
+      </c>
+      <c r="K9" s="3">
         <v>311500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>208400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>183600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>174300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-31600</v>
+        <v>-25600</v>
       </c>
       <c r="E10" s="3">
-        <v>-1800</v>
+        <v>-18600</v>
       </c>
       <c r="F10" s="3">
-        <v>8700</v>
+        <v>-1100</v>
       </c>
       <c r="G10" s="3">
-        <v>13200</v>
+        <v>5100</v>
       </c>
       <c r="H10" s="3">
-        <v>12200</v>
+        <v>7800</v>
       </c>
       <c r="I10" s="3">
-        <v>-23200</v>
+        <v>7200</v>
       </c>
       <c r="J10" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K10" s="3">
         <v>-29400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-15000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-16200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-13500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +867,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>29300</v>
+        <v>29500</v>
       </c>
       <c r="E12" s="3">
-        <v>21600</v>
+        <v>17200</v>
       </c>
       <c r="F12" s="3">
-        <v>18600</v>
+        <v>12700</v>
       </c>
       <c r="G12" s="3">
-        <v>14200</v>
+        <v>10900</v>
       </c>
       <c r="H12" s="3">
-        <v>13800</v>
+        <v>8300</v>
       </c>
       <c r="I12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K12" s="3">
         <v>12700</v>
       </c>
-      <c r="J12" s="3">
-        <v>12700</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11700</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,35 +1002,38 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
-        <v>5100</v>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+        <v>3000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2700</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>3600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3200</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>664800</v>
+        <v>461800</v>
       </c>
       <c r="E17" s="3">
-        <v>548900</v>
+        <v>390400</v>
       </c>
       <c r="F17" s="3">
-        <v>582800</v>
+        <v>322300</v>
       </c>
       <c r="G17" s="3">
-        <v>347100</v>
+        <v>342200</v>
       </c>
       <c r="H17" s="3">
-        <v>366000</v>
+        <v>203800</v>
       </c>
       <c r="I17" s="3">
-        <v>343000</v>
+        <v>214900</v>
       </c>
       <c r="J17" s="3">
+        <v>201400</v>
+      </c>
+      <c r="K17" s="3">
         <v>365400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>252400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>222900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>211600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-166100</v>
+        <v>-133600</v>
       </c>
       <c r="E18" s="3">
-        <v>-98900</v>
+        <v>-97600</v>
       </c>
       <c r="F18" s="3">
-        <v>-74300</v>
+        <v>-58100</v>
       </c>
       <c r="G18" s="3">
-        <v>-44900</v>
+        <v>-43600</v>
       </c>
       <c r="H18" s="3">
-        <v>-39800</v>
+        <v>-26400</v>
       </c>
       <c r="I18" s="3">
-        <v>-74400</v>
+        <v>-23400</v>
       </c>
       <c r="J18" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-83300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-59000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-55500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-50900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-39400</v>
+        <v>22900</v>
       </c>
       <c r="E20" s="3">
-        <v>9000</v>
+        <v>-23100</v>
       </c>
       <c r="F20" s="3">
-        <v>-48000</v>
+        <v>5300</v>
       </c>
       <c r="G20" s="3">
-        <v>-7600</v>
+        <v>-28200</v>
       </c>
       <c r="H20" s="3">
-        <v>-5400</v>
+        <v>-4500</v>
       </c>
       <c r="I20" s="3">
-        <v>-2400</v>
+        <v>-3200</v>
       </c>
       <c r="J20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-176800</v>
+        <v>-89500</v>
       </c>
       <c r="E21" s="3">
-        <v>-66500</v>
+        <v>-103800</v>
       </c>
       <c r="F21" s="3">
-        <v>-101300</v>
+        <v>-39100</v>
       </c>
       <c r="G21" s="3">
-        <v>-21400</v>
+        <v>-59500</v>
       </c>
       <c r="H21" s="3">
-        <v>-43400</v>
+        <v>-12500</v>
       </c>
       <c r="I21" s="3">
-        <v>-63800</v>
+        <v>-25500</v>
       </c>
       <c r="J21" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-76100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-46600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-56400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-47700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1265,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-205500</v>
+        <v>-110700</v>
       </c>
       <c r="E23" s="3">
-        <v>-90000</v>
+        <v>-120700</v>
       </c>
       <c r="F23" s="3">
-        <v>-122300</v>
+        <v>-52800</v>
       </c>
       <c r="G23" s="3">
-        <v>-52500</v>
+        <v>-71800</v>
       </c>
       <c r="H23" s="3">
-        <v>-45200</v>
+        <v>-30800</v>
       </c>
       <c r="I23" s="3">
-        <v>-76700</v>
+        <v>-26600</v>
       </c>
       <c r="J23" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-87900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-62300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-57100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-54400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>800</v>
+        <v>-200</v>
       </c>
       <c r="F24" s="3">
-        <v>4400</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-205200</v>
+        <v>-110900</v>
       </c>
       <c r="E26" s="3">
-        <v>-90700</v>
+        <v>-120500</v>
       </c>
       <c r="F26" s="3">
-        <v>-126700</v>
+        <v>-53300</v>
       </c>
       <c r="G26" s="3">
-        <v>-52300</v>
+        <v>-74400</v>
       </c>
       <c r="H26" s="3">
-        <v>-44300</v>
+        <v>-30700</v>
       </c>
       <c r="I26" s="3">
-        <v>-76600</v>
+        <v>-26000</v>
       </c>
       <c r="J26" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-85300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-62200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-56900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-54400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-205200</v>
+        <v>-110900</v>
       </c>
       <c r="E27" s="3">
-        <v>-90700</v>
+        <v>-120500</v>
       </c>
       <c r="F27" s="3">
-        <v>-126300</v>
+        <v>-53300</v>
       </c>
       <c r="G27" s="3">
-        <v>-52300</v>
+        <v>-74100</v>
       </c>
       <c r="H27" s="3">
-        <v>-44300</v>
+        <v>-30700</v>
       </c>
       <c r="I27" s="3">
-        <v>-76600</v>
+        <v>-26000</v>
       </c>
       <c r="J27" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-85100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-62200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-56900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-54400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>39400</v>
+        <v>-22900</v>
       </c>
       <c r="E32" s="3">
-        <v>-9000</v>
+        <v>23100</v>
       </c>
       <c r="F32" s="3">
-        <v>48000</v>
+        <v>-5300</v>
       </c>
       <c r="G32" s="3">
-        <v>7600</v>
+        <v>28200</v>
       </c>
       <c r="H32" s="3">
-        <v>5400</v>
+        <v>4500</v>
       </c>
       <c r="I32" s="3">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="J32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K32" s="3">
         <v>4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-205200</v>
+        <v>-110900</v>
       </c>
       <c r="E33" s="3">
-        <v>-90700</v>
+        <v>-120500</v>
       </c>
       <c r="F33" s="3">
-        <v>-126300</v>
+        <v>-53300</v>
       </c>
       <c r="G33" s="3">
-        <v>-52300</v>
+        <v>-74100</v>
       </c>
       <c r="H33" s="3">
-        <v>-44300</v>
+        <v>-30700</v>
       </c>
       <c r="I33" s="3">
-        <v>-76600</v>
+        <v>-26000</v>
       </c>
       <c r="J33" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-85100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-62200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-56900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-54400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-205200</v>
+        <v>-110900</v>
       </c>
       <c r="E35" s="3">
-        <v>-90700</v>
+        <v>-120500</v>
       </c>
       <c r="F35" s="3">
-        <v>-126300</v>
+        <v>-53300</v>
       </c>
       <c r="G35" s="3">
-        <v>-52300</v>
+        <v>-74100</v>
       </c>
       <c r="H35" s="3">
-        <v>-44300</v>
+        <v>-30700</v>
       </c>
       <c r="I35" s="3">
-        <v>-76600</v>
+        <v>-26000</v>
       </c>
       <c r="J35" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-85100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-62200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-56900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-54400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,25 +1880,26 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1654800</v>
+        <v>921300</v>
       </c>
       <c r="E41" s="3">
-        <v>1893700</v>
+        <v>971700</v>
       </c>
       <c r="F41" s="3">
-        <v>597700</v>
+        <v>1112000</v>
       </c>
       <c r="G41" s="3">
-        <v>17900</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>351000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>10500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1832,25 +1919,28 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>23100</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
-        <v>799200</v>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G42" s="3">
-        <v>51100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>469300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>30000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1870,25 +1960,28 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>64400</v>
+        <v>43700</v>
       </c>
       <c r="E43" s="3">
-        <v>52300</v>
+        <v>37800</v>
       </c>
       <c r="F43" s="3">
-        <v>58100</v>
+        <v>30700</v>
       </c>
       <c r="G43" s="3">
-        <v>46500</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>34100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>27300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1908,25 +2001,28 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>238300</v>
+        <v>153400</v>
       </c>
       <c r="E44" s="3">
-        <v>226900</v>
+        <v>139900</v>
       </c>
       <c r="F44" s="3">
-        <v>206700</v>
+        <v>133200</v>
       </c>
       <c r="G44" s="3">
-        <v>151700</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>121400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>89100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1946,25 +2042,28 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32900</v>
+        <v>28400</v>
       </c>
       <c r="E45" s="3">
         <v>19300</v>
       </c>
       <c r="F45" s="3">
-        <v>19500</v>
+        <v>11400</v>
       </c>
       <c r="G45" s="3">
-        <v>17800</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>11500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>10400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1984,25 +2083,28 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1990300</v>
+        <v>1169900</v>
       </c>
       <c r="E46" s="3">
-        <v>2192200</v>
+        <v>1168800</v>
       </c>
       <c r="F46" s="3">
-        <v>1681200</v>
+        <v>1287300</v>
       </c>
       <c r="G46" s="3">
-        <v>285000</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>987200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>167400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2022,25 +2124,28 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16800</v>
+        <v>9800</v>
       </c>
       <c r="E47" s="3">
-        <v>15800</v>
+        <v>9900</v>
       </c>
       <c r="F47" s="3">
-        <v>15000</v>
+        <v>9300</v>
       </c>
       <c r="G47" s="3">
-        <v>16300</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>8800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>9600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2060,25 +2165,28 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>514800</v>
+        <v>397100</v>
       </c>
       <c r="E48" s="3">
-        <v>395700</v>
+        <v>302300</v>
       </c>
       <c r="F48" s="3">
-        <v>356300</v>
+        <v>232400</v>
       </c>
       <c r="G48" s="3">
-        <v>322700</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>209200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>189500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2206,28 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7600</v>
+        <v>6600</v>
       </c>
       <c r="E49" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F49" s="3">
-        <v>4300</v>
+        <v>2600</v>
       </c>
       <c r="G49" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,25 +2329,28 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>65400</v>
+        <v>50100</v>
       </c>
       <c r="E52" s="3">
-        <v>37400</v>
+        <v>38400</v>
       </c>
       <c r="F52" s="3">
-        <v>25900</v>
+        <v>22000</v>
       </c>
       <c r="G52" s="3">
-        <v>33900</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>15200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>19900</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,25 +2411,28 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2594900</v>
+        <v>1633300</v>
       </c>
       <c r="E54" s="3">
-        <v>2645500</v>
+        <v>1523800</v>
       </c>
       <c r="F54" s="3">
-        <v>2082600</v>
+        <v>1553500</v>
       </c>
       <c r="G54" s="3">
-        <v>660700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>1222900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>388000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,25 +2488,26 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>572900</v>
+        <v>376200</v>
       </c>
       <c r="E57" s="3">
-        <v>521900</v>
+        <v>336400</v>
       </c>
       <c r="F57" s="3">
-        <v>573100</v>
+        <v>306500</v>
       </c>
       <c r="G57" s="3">
-        <v>333900</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>336500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>196100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2396,25 +2527,28 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>86500</v>
+        <v>144300</v>
       </c>
       <c r="E58" s="3">
-        <v>71100</v>
+        <v>50800</v>
       </c>
       <c r="F58" s="3">
-        <v>139400</v>
+        <v>41800</v>
       </c>
       <c r="G58" s="3">
-        <v>178300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>81900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>104700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2434,25 +2568,28 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122100</v>
+        <v>88100</v>
       </c>
       <c r="E59" s="3">
-        <v>98800</v>
+        <v>71700</v>
       </c>
       <c r="F59" s="3">
-        <v>98600</v>
+        <v>58000</v>
       </c>
       <c r="G59" s="3">
-        <v>62700</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>57900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>36800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2472,25 +2609,28 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>781500</v>
+        <v>608500</v>
       </c>
       <c r="E60" s="3">
-        <v>691800</v>
+        <v>458900</v>
       </c>
       <c r="F60" s="3">
-        <v>811000</v>
+        <v>406200</v>
       </c>
       <c r="G60" s="3">
-        <v>574900</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>476300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>337600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2510,25 +2650,28 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>927600</v>
+        <v>615600</v>
       </c>
       <c r="E61" s="3">
-        <v>860100</v>
+        <v>544700</v>
       </c>
       <c r="F61" s="3">
-        <v>196500</v>
+        <v>505100</v>
       </c>
       <c r="G61" s="3">
-        <v>158400</v>
+        <v>115400</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>93000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2548,25 +2691,28 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>89600</v>
+        <v>26800</v>
       </c>
       <c r="E62" s="3">
-        <v>106600</v>
+        <v>52600</v>
       </c>
       <c r="F62" s="3">
-        <v>7400</v>
+        <v>62600</v>
       </c>
       <c r="G62" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,25 +2855,28 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1798600</v>
+        <v>1251000</v>
       </c>
       <c r="E66" s="3">
-        <v>1658500</v>
+        <v>1056200</v>
       </c>
       <c r="F66" s="3">
-        <v>1015000</v>
+        <v>973900</v>
       </c>
       <c r="G66" s="3">
-        <v>735900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>596000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>432100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,25 +3077,28 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1004600</v>
+        <v>-679000</v>
       </c>
       <c r="E72" s="3">
-        <v>-810600</v>
+        <v>-589900</v>
       </c>
       <c r="F72" s="3">
-        <v>-730000</v>
+        <v>-476000</v>
       </c>
       <c r="G72" s="3">
-        <v>-507400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-428700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-298000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,25 +3241,28 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>796200</v>
+        <v>382400</v>
       </c>
       <c r="E76" s="3">
-        <v>987000</v>
+        <v>467600</v>
       </c>
       <c r="F76" s="3">
-        <v>1067600</v>
+        <v>579600</v>
       </c>
       <c r="G76" s="3">
-        <v>-75100</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>626900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-44100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-205200</v>
+        <v>-110900</v>
       </c>
       <c r="E81" s="3">
-        <v>-90700</v>
+        <v>-120500</v>
       </c>
       <c r="F81" s="3">
-        <v>-126300</v>
+        <v>-53300</v>
       </c>
       <c r="G81" s="3">
-        <v>-52300</v>
+        <v>-74100</v>
       </c>
       <c r="H81" s="3">
-        <v>-44300</v>
+        <v>-30700</v>
       </c>
       <c r="I81" s="3">
-        <v>-76600</v>
+        <v>-26000</v>
       </c>
       <c r="J81" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-85100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-62200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-56900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-54400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,22 +3429,23 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28700</v>
+        <v>21200</v>
       </c>
       <c r="E83" s="3">
-        <v>23400</v>
+        <v>16900</v>
       </c>
       <c r="F83" s="3">
-        <v>21000</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>12300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3254,12 +3453,12 @@
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>11800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-103400</v>
+        <v>-72000</v>
       </c>
       <c r="E89" s="3">
-        <v>-163200</v>
+        <v>-60700</v>
       </c>
       <c r="F89" s="3">
-        <v>143400</v>
+        <v>-95900</v>
       </c>
       <c r="G89" s="3">
-        <v>6000</v>
+        <v>84200</v>
       </c>
       <c r="H89" s="3">
-        <v>-28400</v>
+        <v>3500</v>
       </c>
       <c r="I89" s="3">
-        <v>-32500</v>
+        <v>-16700</v>
       </c>
       <c r="J89" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-36700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-91200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-43200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-49300</v>
+        <v>-34900</v>
       </c>
       <c r="E91" s="3">
-        <v>-25800</v>
+        <v>-29000</v>
       </c>
       <c r="F91" s="3">
-        <v>-27000</v>
+        <v>-15100</v>
       </c>
       <c r="G91" s="3">
-        <v>-21900</v>
+        <v>-15900</v>
       </c>
       <c r="H91" s="3">
-        <v>-26700</v>
+        <v>-12900</v>
       </c>
       <c r="I91" s="3">
-        <v>-14800</v>
+        <v>-15700</v>
       </c>
       <c r="J91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-21800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,22 +3854,25 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-51100</v>
+        <v>-58300</v>
       </c>
       <c r="E94" s="3">
-        <v>-21500</v>
+        <v>-30000</v>
       </c>
       <c r="F94" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-12600</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-15600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3650,12 +3880,12 @@
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-21400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,22 +4076,25 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12300</v>
+        <v>73300</v>
       </c>
       <c r="E100" s="3">
-        <v>642500</v>
+        <v>-7200</v>
       </c>
       <c r="F100" s="3">
-        <v>1237200</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>377300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>726500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3856,12 +4102,12 @@
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>67200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,22 +4117,25 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-72100</v>
+        <v>6500</v>
       </c>
       <c r="E101" s="3">
-        <v>39100</v>
+        <v>-42300</v>
       </c>
       <c r="F101" s="3">
-        <v>-26200</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>22900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-15400</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3894,12 +4143,12 @@
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3909,22 +4158,25 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-238900</v>
+        <v>-50500</v>
       </c>
       <c r="E102" s="3">
-        <v>496800</v>
+        <v>-140300</v>
       </c>
       <c r="F102" s="3">
-        <v>1327800</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>291700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>779700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3932,12 +4184,12 @@
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>9300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3945,6 +4197,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>OZON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>328200</v>
+        <v>1064700</v>
       </c>
       <c r="E8" s="3">
-        <v>292800</v>
+        <v>666400</v>
       </c>
       <c r="F8" s="3">
-        <v>264200</v>
+        <v>594500</v>
       </c>
       <c r="G8" s="3">
-        <v>298600</v>
+        <v>536500</v>
       </c>
       <c r="H8" s="3">
-        <v>177500</v>
+        <v>606300</v>
       </c>
       <c r="I8" s="3">
-        <v>191500</v>
+        <v>360300</v>
       </c>
       <c r="J8" s="3">
+        <v>388900</v>
+      </c>
+      <c r="K8" s="3">
         <v>157800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>282100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>193400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>167400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>160700</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>353800</v>
+        <v>1142800</v>
       </c>
       <c r="E9" s="3">
-        <v>311400</v>
+        <v>718300</v>
       </c>
       <c r="F9" s="3">
-        <v>265300</v>
+        <v>632200</v>
       </c>
       <c r="G9" s="3">
-        <v>293500</v>
+        <v>538700</v>
       </c>
       <c r="H9" s="3">
-        <v>169700</v>
+        <v>595900</v>
       </c>
       <c r="I9" s="3">
-        <v>184400</v>
+        <v>344600</v>
       </c>
       <c r="J9" s="3">
+        <v>374300</v>
+      </c>
+      <c r="K9" s="3">
         <v>171400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>311500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>208400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>183600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>174300</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-25600</v>
+        <v>-78000</v>
       </c>
       <c r="E10" s="3">
-        <v>-18600</v>
+        <v>-51900</v>
       </c>
       <c r="F10" s="3">
-        <v>-1100</v>
+        <v>-37700</v>
       </c>
       <c r="G10" s="3">
-        <v>5100</v>
+        <v>-2200</v>
       </c>
       <c r="H10" s="3">
-        <v>7800</v>
+        <v>10400</v>
       </c>
       <c r="I10" s="3">
-        <v>7200</v>
+        <v>15800</v>
       </c>
       <c r="J10" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K10" s="3">
         <v>-13600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-29400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-15000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-16200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-13500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>29500</v>
+        <v>62700</v>
       </c>
       <c r="E12" s="3">
-        <v>17200</v>
+        <v>60000</v>
       </c>
       <c r="F12" s="3">
+        <v>34900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>25800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>22200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="L12" s="3">
         <v>12700</v>
       </c>
-      <c r="G12" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>12700</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11700</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,35 +1027,38 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
-        <v>3000</v>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+        <v>6100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>3600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3200</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>461800</v>
+        <v>1422600</v>
       </c>
       <c r="E17" s="3">
-        <v>390400</v>
+        <v>937700</v>
       </c>
       <c r="F17" s="3">
-        <v>322300</v>
+        <v>792600</v>
       </c>
       <c r="G17" s="3">
-        <v>342200</v>
+        <v>654500</v>
       </c>
       <c r="H17" s="3">
-        <v>203800</v>
+        <v>694900</v>
       </c>
       <c r="I17" s="3">
-        <v>214900</v>
+        <v>413900</v>
       </c>
       <c r="J17" s="3">
+        <v>436300</v>
+      </c>
+      <c r="K17" s="3">
         <v>201400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>365400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>252400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>222900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>211600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-133600</v>
+        <v>-357900</v>
       </c>
       <c r="E18" s="3">
-        <v>-97600</v>
+        <v>-271300</v>
       </c>
       <c r="F18" s="3">
-        <v>-58100</v>
+        <v>-198100</v>
       </c>
       <c r="G18" s="3">
-        <v>-43600</v>
+        <v>-117900</v>
       </c>
       <c r="H18" s="3">
-        <v>-26400</v>
+        <v>-88600</v>
       </c>
       <c r="I18" s="3">
-        <v>-23400</v>
+        <v>-53500</v>
       </c>
       <c r="J18" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-43700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-83300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-59000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-55500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-50900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,113 +1177,120 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22900</v>
+        <v>116300</v>
       </c>
       <c r="E20" s="3">
-        <v>-23100</v>
+        <v>46500</v>
       </c>
       <c r="F20" s="3">
-        <v>5300</v>
+        <v>-47000</v>
       </c>
       <c r="G20" s="3">
-        <v>-28200</v>
+        <v>10700</v>
       </c>
       <c r="H20" s="3">
-        <v>-4500</v>
+        <v>-57300</v>
       </c>
       <c r="I20" s="3">
-        <v>-3200</v>
+        <v>-9100</v>
       </c>
       <c r="J20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-89500</v>
+        <v>-188000</v>
       </c>
       <c r="E21" s="3">
-        <v>-103800</v>
+        <v>-181800</v>
       </c>
       <c r="F21" s="3">
-        <v>-39100</v>
+        <v>-210800</v>
       </c>
       <c r="G21" s="3">
-        <v>-59500</v>
+        <v>-79300</v>
       </c>
       <c r="H21" s="3">
-        <v>-12500</v>
+        <v>-120800</v>
       </c>
       <c r="I21" s="3">
         <v>-25500</v>
       </c>
       <c r="J21" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-37500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-76100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-46600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-56400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-47700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>93200</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1268,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-110700</v>
+        <v>-334700</v>
       </c>
       <c r="E23" s="3">
-        <v>-120700</v>
+        <v>-224800</v>
       </c>
       <c r="F23" s="3">
-        <v>-52800</v>
+        <v>-245100</v>
       </c>
       <c r="G23" s="3">
-        <v>-71800</v>
+        <v>-107200</v>
       </c>
       <c r="H23" s="3">
-        <v>-30800</v>
+        <v>-145900</v>
       </c>
       <c r="I23" s="3">
-        <v>-26600</v>
+        <v>-62600</v>
       </c>
       <c r="J23" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-45100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-87900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-62300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-57100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-54400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>-800</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-110900</v>
+        <v>-334000</v>
       </c>
       <c r="E26" s="3">
-        <v>-120500</v>
+        <v>-225100</v>
       </c>
       <c r="F26" s="3">
-        <v>-53300</v>
+        <v>-244600</v>
       </c>
       <c r="G26" s="3">
-        <v>-74400</v>
+        <v>-108100</v>
       </c>
       <c r="H26" s="3">
-        <v>-30700</v>
+        <v>-151100</v>
       </c>
       <c r="I26" s="3">
-        <v>-26000</v>
+        <v>-62300</v>
       </c>
       <c r="J26" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-45000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-85300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-62200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-56900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-54400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-110900</v>
+        <v>-334000</v>
       </c>
       <c r="E27" s="3">
-        <v>-120500</v>
+        <v>-225100</v>
       </c>
       <c r="F27" s="3">
-        <v>-53300</v>
+        <v>-244600</v>
       </c>
       <c r="G27" s="3">
-        <v>-74100</v>
+        <v>-108100</v>
       </c>
       <c r="H27" s="3">
-        <v>-30700</v>
+        <v>-150500</v>
       </c>
       <c r="I27" s="3">
-        <v>-26000</v>
+        <v>-62300</v>
       </c>
       <c r="J27" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-45000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-85100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-62200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-56900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-54400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22900</v>
+        <v>-116300</v>
       </c>
       <c r="E32" s="3">
-        <v>23100</v>
+        <v>-46500</v>
       </c>
       <c r="F32" s="3">
-        <v>-5300</v>
+        <v>47000</v>
       </c>
       <c r="G32" s="3">
-        <v>28200</v>
+        <v>-10700</v>
       </c>
       <c r="H32" s="3">
-        <v>4500</v>
+        <v>57300</v>
       </c>
       <c r="I32" s="3">
-        <v>3200</v>
+        <v>9100</v>
       </c>
       <c r="J32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-110900</v>
+        <v>-334000</v>
       </c>
       <c r="E33" s="3">
-        <v>-120500</v>
+        <v>-225100</v>
       </c>
       <c r="F33" s="3">
-        <v>-53300</v>
+        <v>-244600</v>
       </c>
       <c r="G33" s="3">
-        <v>-74100</v>
+        <v>-108100</v>
       </c>
       <c r="H33" s="3">
-        <v>-30700</v>
+        <v>-150500</v>
       </c>
       <c r="I33" s="3">
-        <v>-26000</v>
+        <v>-62300</v>
       </c>
       <c r="J33" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-45000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-85100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-62200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-56900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-54400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-110900</v>
+        <v>-334000</v>
       </c>
       <c r="E35" s="3">
-        <v>-120500</v>
+        <v>-225100</v>
       </c>
       <c r="F35" s="3">
-        <v>-53300</v>
+        <v>-244600</v>
       </c>
       <c r="G35" s="3">
-        <v>-74100</v>
+        <v>-108100</v>
       </c>
       <c r="H35" s="3">
-        <v>-30700</v>
+        <v>-150500</v>
       </c>
       <c r="I35" s="3">
-        <v>-26000</v>
+        <v>-62300</v>
       </c>
       <c r="J35" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-45000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-85100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-62200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-56900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-54400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,28 +1966,29 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>921300</v>
+        <v>342400</v>
       </c>
       <c r="E41" s="3">
-        <v>971700</v>
+        <v>1870500</v>
       </c>
       <c r="F41" s="3">
-        <v>1112000</v>
+        <v>1973000</v>
       </c>
       <c r="G41" s="3">
-        <v>351000</v>
+        <v>2257800</v>
       </c>
       <c r="H41" s="3">
-        <v>10500</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>712600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>21300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1922,28 +2008,31 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23100</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+        <v>1747000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>46900</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="3">
-        <v>469300</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H42" s="3">
-        <v>30000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>952900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>61000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1963,28 +2052,31 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>43700</v>
+        <v>161400</v>
       </c>
       <c r="E43" s="3">
-        <v>37800</v>
+        <v>88800</v>
       </c>
       <c r="F43" s="3">
-        <v>30700</v>
+        <v>76800</v>
       </c>
       <c r="G43" s="3">
-        <v>34100</v>
+        <v>62400</v>
       </c>
       <c r="H43" s="3">
-        <v>27300</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>69300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>55400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2004,28 +2096,31 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>153400</v>
+        <v>423400</v>
       </c>
       <c r="E44" s="3">
-        <v>139900</v>
+        <v>311500</v>
       </c>
       <c r="F44" s="3">
-        <v>133200</v>
+        <v>284100</v>
       </c>
       <c r="G44" s="3">
-        <v>121400</v>
+        <v>270500</v>
       </c>
       <c r="H44" s="3">
-        <v>89100</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>246400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>180900</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -2045,28 +2140,31 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28400</v>
+        <v>1200</v>
       </c>
       <c r="E45" s="3">
-        <v>19300</v>
+        <v>57700</v>
       </c>
       <c r="F45" s="3">
-        <v>11400</v>
+        <v>39200</v>
       </c>
       <c r="G45" s="3">
-        <v>11500</v>
+        <v>23000</v>
       </c>
       <c r="H45" s="3">
-        <v>10400</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>23300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>21200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2086,28 +2184,31 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1169900</v>
+        <v>2675400</v>
       </c>
       <c r="E46" s="3">
-        <v>1168800</v>
+        <v>2375200</v>
       </c>
       <c r="F46" s="3">
-        <v>1287300</v>
+        <v>2373000</v>
       </c>
       <c r="G46" s="3">
-        <v>987200</v>
+        <v>2613700</v>
       </c>
       <c r="H46" s="3">
-        <v>167400</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>2004400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>339800</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2127,28 +2228,31 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9800</v>
+        <v>57000</v>
       </c>
       <c r="E47" s="3">
-        <v>9900</v>
+        <v>19800</v>
       </c>
       <c r="F47" s="3">
-        <v>9300</v>
+        <v>20000</v>
       </c>
       <c r="G47" s="3">
-        <v>8800</v>
+        <v>18800</v>
       </c>
       <c r="H47" s="3">
-        <v>9600</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>17800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>19400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2168,28 +2272,31 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>397100</v>
+        <v>1122800</v>
       </c>
       <c r="E48" s="3">
-        <v>302300</v>
+        <v>806100</v>
       </c>
       <c r="F48" s="3">
-        <v>232400</v>
+        <v>613700</v>
       </c>
       <c r="G48" s="3">
-        <v>209200</v>
+        <v>471800</v>
       </c>
       <c r="H48" s="3">
-        <v>189500</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>424800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>384700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2209,28 +2316,31 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6600</v>
+        <v>18800</v>
       </c>
       <c r="E49" s="3">
-        <v>4500</v>
+        <v>13300</v>
       </c>
       <c r="F49" s="3">
-        <v>2600</v>
+        <v>9100</v>
       </c>
       <c r="G49" s="3">
-        <v>2500</v>
+        <v>5200</v>
       </c>
       <c r="H49" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>5100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,28 +2448,31 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>50100</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="3">
-        <v>38400</v>
+        <v>101600</v>
       </c>
       <c r="F52" s="3">
-        <v>22000</v>
+        <v>77900</v>
       </c>
       <c r="G52" s="3">
-        <v>15200</v>
+        <v>44600</v>
       </c>
       <c r="H52" s="3">
-        <v>19900</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>30900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>40500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,28 +2536,31 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1633300</v>
+        <v>3875900</v>
       </c>
       <c r="E54" s="3">
-        <v>1523800</v>
+        <v>3316200</v>
       </c>
       <c r="F54" s="3">
-        <v>1553500</v>
+        <v>3093800</v>
       </c>
       <c r="G54" s="3">
-        <v>1222900</v>
+        <v>3154200</v>
       </c>
       <c r="H54" s="3">
-        <v>388000</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>2483000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>787800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,28 +2618,29 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>376200</v>
+        <v>1433700</v>
       </c>
       <c r="E57" s="3">
-        <v>336400</v>
+        <v>763700</v>
       </c>
       <c r="F57" s="3">
-        <v>306500</v>
+        <v>683000</v>
       </c>
       <c r="G57" s="3">
-        <v>336500</v>
+        <v>622200</v>
       </c>
       <c r="H57" s="3">
-        <v>196100</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>683300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>398200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2530,28 +2660,31 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>144300</v>
+        <v>308900</v>
       </c>
       <c r="E58" s="3">
-        <v>50800</v>
+        <v>293000</v>
       </c>
       <c r="F58" s="3">
-        <v>41800</v>
+        <v>103100</v>
       </c>
       <c r="G58" s="3">
-        <v>81900</v>
+        <v>84800</v>
       </c>
       <c r="H58" s="3">
-        <v>104700</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>166200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>212600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2571,28 +2704,31 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>88100</v>
+        <v>247800</v>
       </c>
       <c r="E59" s="3">
-        <v>71700</v>
+        <v>178800</v>
       </c>
       <c r="F59" s="3">
-        <v>58000</v>
+        <v>145600</v>
       </c>
       <c r="G59" s="3">
-        <v>57900</v>
+        <v>117800</v>
       </c>
       <c r="H59" s="3">
-        <v>36800</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>117500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>74700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2612,28 +2748,31 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>608500</v>
+        <v>1990400</v>
       </c>
       <c r="E60" s="3">
-        <v>458900</v>
+        <v>1235500</v>
       </c>
       <c r="F60" s="3">
-        <v>406200</v>
+        <v>931700</v>
       </c>
       <c r="G60" s="3">
-        <v>476300</v>
+        <v>824800</v>
       </c>
       <c r="H60" s="3">
-        <v>337600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>967000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>685400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2653,28 +2792,31 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>615600</v>
+        <v>1370700</v>
       </c>
       <c r="E61" s="3">
-        <v>544700</v>
+        <v>1250000</v>
       </c>
       <c r="F61" s="3">
-        <v>505100</v>
+        <v>1105900</v>
       </c>
       <c r="G61" s="3">
-        <v>115400</v>
+        <v>1025400</v>
       </c>
       <c r="H61" s="3">
-        <v>93000</v>
+        <v>234300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>188900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2694,28 +2836,31 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26800</v>
+        <v>23200</v>
       </c>
       <c r="E62" s="3">
-        <v>52600</v>
+        <v>54400</v>
       </c>
       <c r="F62" s="3">
-        <v>62600</v>
+        <v>106800</v>
       </c>
       <c r="G62" s="3">
-        <v>4400</v>
+        <v>127100</v>
       </c>
       <c r="H62" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>8800</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,28 +3012,31 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1251000</v>
+        <v>3384300</v>
       </c>
       <c r="E66" s="3">
-        <v>1056200</v>
+        <v>2539900</v>
       </c>
       <c r="F66" s="3">
-        <v>973900</v>
+        <v>2144500</v>
       </c>
       <c r="G66" s="3">
-        <v>596000</v>
+        <v>1977400</v>
       </c>
       <c r="H66" s="3">
-        <v>432100</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>1210100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>877400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,28 +3250,31 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-679000</v>
+        <v>-1675500</v>
       </c>
       <c r="E72" s="3">
-        <v>-589900</v>
+        <v>-1378700</v>
       </c>
       <c r="F72" s="3">
-        <v>-476000</v>
+        <v>-1197700</v>
       </c>
       <c r="G72" s="3">
-        <v>-428700</v>
+        <v>-966500</v>
       </c>
       <c r="H72" s="3">
-        <v>-298000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-870300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-605000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,28 +3426,31 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>382400</v>
+        <v>491600</v>
       </c>
       <c r="E76" s="3">
-        <v>467600</v>
+        <v>776300</v>
       </c>
       <c r="F76" s="3">
-        <v>579600</v>
+        <v>949300</v>
       </c>
       <c r="G76" s="3">
-        <v>626900</v>
+        <v>1176800</v>
       </c>
       <c r="H76" s="3">
-        <v>-44100</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>1272900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-89600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-110900</v>
+        <v>-334000</v>
       </c>
       <c r="E81" s="3">
-        <v>-120500</v>
+        <v>-225100</v>
       </c>
       <c r="F81" s="3">
-        <v>-53300</v>
+        <v>-244600</v>
       </c>
       <c r="G81" s="3">
-        <v>-74100</v>
+        <v>-108100</v>
       </c>
       <c r="H81" s="3">
-        <v>-30700</v>
+        <v>-150500</v>
       </c>
       <c r="I81" s="3">
-        <v>-26000</v>
+        <v>-62300</v>
       </c>
       <c r="J81" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-45000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-85100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-62200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-56900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-54400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,25 +3627,26 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21200</v>
+        <v>53500</v>
       </c>
       <c r="E83" s="3">
-        <v>16900</v>
+        <v>43000</v>
       </c>
       <c r="F83" s="3">
-        <v>13800</v>
+        <v>34200</v>
       </c>
       <c r="G83" s="3">
-        <v>12300</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>27900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>25100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3456,12 +3654,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>11800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-72000</v>
+        <v>245200</v>
       </c>
       <c r="E89" s="3">
-        <v>-60700</v>
+        <v>-146200</v>
       </c>
       <c r="F89" s="3">
-        <v>-95900</v>
+        <v>-123200</v>
       </c>
       <c r="G89" s="3">
-        <v>84200</v>
+        <v>-194600</v>
       </c>
       <c r="H89" s="3">
-        <v>3500</v>
+        <v>170900</v>
       </c>
       <c r="I89" s="3">
-        <v>-16700</v>
+        <v>7100</v>
       </c>
       <c r="J89" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-19100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-36700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-91200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-43200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34900</v>
+        <v>-139500</v>
       </c>
       <c r="E91" s="3">
-        <v>-29000</v>
+        <v>-70900</v>
       </c>
       <c r="F91" s="3">
-        <v>-15100</v>
+        <v>-58800</v>
       </c>
       <c r="G91" s="3">
-        <v>-15900</v>
+        <v>-30700</v>
       </c>
       <c r="H91" s="3">
-        <v>-12900</v>
+        <v>-32200</v>
       </c>
       <c r="I91" s="3">
-        <v>-15700</v>
+        <v>-26100</v>
       </c>
       <c r="J91" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,25 +4083,28 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-58300</v>
+        <v>-363600</v>
       </c>
       <c r="E94" s="3">
-        <v>-30000</v>
+        <v>-118300</v>
       </c>
       <c r="F94" s="3">
-        <v>-12600</v>
+        <v>-60900</v>
       </c>
       <c r="G94" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-25600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-31600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3883,12 +4112,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-21400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,25 +4321,28 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>73300</v>
+        <v>-34600</v>
       </c>
       <c r="E100" s="3">
-        <v>-7200</v>
+        <v>148800</v>
       </c>
       <c r="F100" s="3">
-        <v>377300</v>
+        <v>-14700</v>
       </c>
       <c r="G100" s="3">
-        <v>726500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>766000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1475000</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -4105,12 +4350,12 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>67200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4120,25 +4365,28 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6500</v>
+        <v>17700</v>
       </c>
       <c r="E101" s="3">
-        <v>-42300</v>
+        <v>13200</v>
       </c>
       <c r="F101" s="3">
-        <v>22900</v>
+        <v>-85900</v>
       </c>
       <c r="G101" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+        <v>46600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-31300</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -4146,12 +4394,12 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4161,25 +4409,28 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-50500</v>
+        <v>-135400</v>
       </c>
       <c r="E102" s="3">
-        <v>-140300</v>
+        <v>-102500</v>
       </c>
       <c r="F102" s="3">
-        <v>291700</v>
+        <v>-284800</v>
       </c>
       <c r="G102" s="3">
-        <v>779700</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>592300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1583100</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -4187,12 +4438,12 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>9300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4200,6 +4451,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
